--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,7 @@
     <t>Ror1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H2">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.154509</v>
+        <v>1.592395</v>
       </c>
       <c r="N2">
-        <v>0.309018</v>
+        <v>3.18479</v>
       </c>
       <c r="O2">
-        <v>0.007663950691541977</v>
+        <v>0.1081406801663129</v>
       </c>
       <c r="P2">
-        <v>0.006524939028629997</v>
+        <v>0.08970879337942068</v>
       </c>
       <c r="Q2">
-        <v>0.713690667792</v>
+        <v>0.200028697925</v>
       </c>
       <c r="R2">
-        <v>4.282144006752</v>
+        <v>0.8001147916999999</v>
       </c>
       <c r="S2">
-        <v>0.007663950691541977</v>
+        <v>0.002863001443734495</v>
       </c>
       <c r="T2">
-        <v>0.006524939028629997</v>
+        <v>0.00159744478473123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H3">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>18.152972</v>
       </c>
       <c r="O3">
-        <v>0.3001410539471102</v>
+        <v>0.4109270918166311</v>
       </c>
       <c r="P3">
-        <v>0.3833014112072033</v>
+        <v>0.5113307986932919</v>
       </c>
       <c r="Q3">
-        <v>27.950058376512</v>
+        <v>0.7600951925933334</v>
       </c>
       <c r="R3">
-        <v>251.550525388608</v>
+        <v>4.56057115556</v>
       </c>
       <c r="S3">
-        <v>0.3001410539471102</v>
+        <v>0.01087920711550251</v>
       </c>
       <c r="T3">
-        <v>0.3833014112072033</v>
+        <v>0.009105269248136316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.619088000000001</v>
+        <v>0.125615</v>
       </c>
       <c r="H4">
-        <v>13.857264</v>
+        <v>0.25123</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02647478672532295</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01780700335556722</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,42 +676,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.9674375</v>
+        <v>7.0818315</v>
       </c>
       <c r="N4">
-        <v>25.934875</v>
+        <v>14.163663</v>
       </c>
       <c r="O4">
-        <v>0.6432104381987611</v>
+        <v>0.4809322280170559</v>
       </c>
       <c r="P4">
-        <v>0.5476168963948392</v>
+        <v>0.3989604079272874</v>
       </c>
       <c r="Q4">
-        <v>59.897734947</v>
+        <v>0.8895842638725</v>
       </c>
       <c r="R4">
-        <v>359.386409682</v>
+        <v>3.55833705549</v>
       </c>
       <c r="S4">
-        <v>0.6432104381987611</v>
+        <v>0.01273257816608594</v>
       </c>
       <c r="T4">
-        <v>0.5476168963948392</v>
+        <v>0.007104289322699674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +726,164 @@
         <v>13.857264</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9735252132746771</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9821929966444328</v>
       </c>
       <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.592395</v>
+      </c>
+      <c r="N5">
+        <v>3.18479</v>
+      </c>
+      <c r="O5">
+        <v>0.1081406801663129</v>
+      </c>
+      <c r="P5">
+        <v>0.08970879337942068</v>
+      </c>
+      <c r="Q5">
+        <v>7.35541263576</v>
+      </c>
+      <c r="R5">
+        <v>44.13247581456</v>
+      </c>
+      <c r="S5">
+        <v>0.1052776787225784</v>
+      </c>
+      <c r="T5">
+        <v>0.08811134859468946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.9875526666666667</v>
-      </c>
-      <c r="N5">
-        <v>2.962658</v>
-      </c>
-      <c r="O5">
-        <v>0.04898455716258681</v>
-      </c>
-      <c r="P5">
-        <v>0.06255675336932766</v>
-      </c>
-      <c r="Q5">
-        <v>4.561592671968</v>
-      </c>
-      <c r="R5">
-        <v>41.054334047712</v>
-      </c>
-      <c r="S5">
-        <v>0.04898455716258681</v>
-      </c>
-      <c r="T5">
-        <v>0.06255675336932766</v>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H6">
+        <v>13.857264</v>
+      </c>
+      <c r="I6">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J6">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.050990666666666</v>
+      </c>
+      <c r="N6">
+        <v>18.152972</v>
+      </c>
+      <c r="O6">
+        <v>0.4109270918166311</v>
+      </c>
+      <c r="P6">
+        <v>0.5113307986932919</v>
+      </c>
+      <c r="Q6">
+        <v>27.950058376512</v>
+      </c>
+      <c r="R6">
+        <v>251.550525388608</v>
+      </c>
+      <c r="S6">
+        <v>0.4000478847011286</v>
+      </c>
+      <c r="T6">
+        <v>0.5022255294451556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.619088000000001</v>
+      </c>
+      <c r="H7">
+        <v>13.857264</v>
+      </c>
+      <c r="I7">
+        <v>0.9735252132746771</v>
+      </c>
+      <c r="J7">
+        <v>0.9821929966444328</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.0818315</v>
+      </c>
+      <c r="N7">
+        <v>14.163663</v>
+      </c>
+      <c r="O7">
+        <v>0.4809322280170559</v>
+      </c>
+      <c r="P7">
+        <v>0.3989604079272874</v>
+      </c>
+      <c r="Q7">
+        <v>32.711602899672</v>
+      </c>
+      <c r="R7">
+        <v>196.269617398032</v>
+      </c>
+      <c r="S7">
+        <v>0.46819964985097</v>
+      </c>
+      <c r="T7">
+        <v>0.3918561186045878</v>
       </c>
     </row>
   </sheetData>
